--- a/downloaded_files/ARCS108_Tutorial-35231.xlsx
+++ b/downloaded_files/ARCS108_Tutorial-35231.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>4250210</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6697323727</x:v>
+        <x:v>45917.6872517014</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.6872517014</x:v>
+        <x:v>45907.6870857986</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6870857986</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6652211806</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS108_Tutorial-35231.xlsx
+++ b/downloaded_files/ARCS108_Tutorial-35231.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>rawda emad khairy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساندرا رافت بشاى سعد حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra Rafaat</x:t>
   </x:si>
   <x:si>
     <x:t>1240226</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6652001505</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4156621528</x:v>
+        <x:v>45907.6652001505</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6733038194</x:v>
+        <x:v>45908.4156621528</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6678549769</x:v>
+        <x:v>45907.6733038194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665128125</x:v>
+        <x:v>45907.6678549769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.665128125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4167732639</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6723212616</x:v>
+        <x:v>45908.4167732639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4164908912</x:v>
+        <x:v>45907.6723212616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4156496181</x:v>
+        <x:v>45908.4164908912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6740405093</x:v>
+        <x:v>45908.4156496181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.6872517014</x:v>
+        <x:v>45907.6740405093</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6870857986</x:v>
+        <x:v>45917.6872517014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.6870857986</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652211806</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6652211806</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS108_Tutorial-35231.xlsx
+++ b/downloaded_files/ARCS108_Tutorial-35231.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Adel Hamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد شعبان محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6870857986</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6652211806</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
